--- a/database.xlsx
+++ b/database.xlsx
@@ -855,7 +855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
